--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02016701-DC86-4B3D-98EB-0C768D82B8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074BF250-510C-481D-8AE5-7D4B8AC929B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
     <sheet name="ApexMethodsAndAccessModifiers" sheetId="2" r:id="rId2"/>
+    <sheet name="Parameterized Methods" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -211,6 +212,168 @@
   </si>
   <si>
     <t>System.debug(firstClass.publicGreeting);</t>
+  </si>
+  <si>
+    <t>3.parameterized-methods</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\3.parameterized-methods\HelloWorld.apxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /*private String goodMorning = 'Good Morning';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String goodAfternoon = 'Good Afternoon';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String goodEvening = 'Good Evening';*/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    /*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void printGoodMorning() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug(goodMorning);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void printGoodAfternoon() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug(goodAfternoon);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void printGoodEvening() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug(goodEvening);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * Generic method to print any message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void printMessage(String msg){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug(msg);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * This method accepts a dayNumber and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * returns the name of the day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String getDay(Integer dayNumber){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        String dayString = '';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch on dayNumber {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 0 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Sunday';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 1 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Monday';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 2 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Tuesday';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 3 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Wednesday';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 4 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Thursday';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 5 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Friday';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 6 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Saturday';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Invalid day number';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        return dayString;</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\3.parameterized-methods\dev-console.txt</t>
+  </si>
+  <si>
+    <t>/*</t>
+  </si>
+  <si>
+    <t>firstClass.printGoodMorning();</t>
+  </si>
+  <si>
+    <t>firstClass.printGoodAfternoon();</t>
+  </si>
+  <si>
+    <t>firstClass.printGoodEvening();</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>firstClass.printMessage('Hello World');</t>
+  </si>
+  <si>
+    <t>firstClass.printMessage('This is generic method');</t>
+  </si>
+  <si>
+    <t>firstClass.printMessage('Good Morning');</t>
+  </si>
+  <si>
+    <t>System.debug(firstClass.getDay(0));</t>
+  </si>
+  <si>
+    <t>System.debug(firstClass.getDay(2));</t>
+  </si>
+  <si>
+    <t>System.debug(firstClass.getDay(6));</t>
+  </si>
+  <si>
+    <t>System.debug(firstClass.getDay(10));</t>
   </si>
 </sst>
 </file>
@@ -339,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -351,8 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1173,6 +1334,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>322226</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>46900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4CE3A4-E49B-FB50-8380-78776CDE5C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="26060400"/>
+          <a:ext cx="12990476" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C151C27E-DFFD-D4FC-22E1-585DBA9ABFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3067050" y="27822525"/>
+          <a:ext cx="4524375" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0477B311-AC7C-2409-3EDE-BF8CD2EB72FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="4572000"/>
+          <a:ext cx="600075" cy="23879175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1438,8 +1754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T357"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3121,20 +3437,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5087B5DE-033F-474B-BAA5-47FF7537DE74}">
-  <dimension ref="A3:H47"/>
+  <dimension ref="A3:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -3145,88 +3461,88 @@
       <c r="G4" s="3"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="11" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="11"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="11"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="11"/>
       <c r="D11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
       <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
       <c r="E12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="11"/>
       <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3254,140 +3570,80 @@
       <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
       <c r="G32" s="6"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
       <c r="G33" s="6"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3419,74 +3675,42 @@
       <c r="B39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
       <c r="G40" s="6"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
       <c r="G42" s="6"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
       <c r="G45" s="6"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3503,4 +3727,754 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE7571A-9643-4C80-837F-73CF6C038F60}">
+  <dimension ref="A3:J125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="J138" sqref="J138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="D14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="H14" s="6"/>
+      <c r="I14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="5"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B98" s="7"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="9"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B103" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="6"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B104" s="5"/>
+      <c r="G104" s="6"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G105" s="6"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" s="6"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G109" s="6"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G110" s="6"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G111" s="6"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G112" s="6"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="5"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114" s="6"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G115" s="6"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="5"/>
+      <c r="G116" s="6"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G117" s="6"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G119" s="6"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G121" s="6"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G124" s="6"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="7"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074BF250-510C-481D-8AE5-7D4B8AC929B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9BCD3-09A7-490B-AC6D-ADFCC8B781D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
     <sheet name="ApexMethodsAndAccessModifiers" sheetId="2" r:id="rId2"/>
     <sheet name="Parameterized Methods" sheetId="3" r:id="rId3"/>
+    <sheet name="Polymorphic Methods" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="123">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -374,6 +375,69 @@
   </si>
   <si>
     <t>System.debug(firstClass.getDay(10));</t>
+  </si>
+  <si>
+    <t>4.polymorphic-methods</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\4.polymorphic-methods\HelloWorld.apxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * This method accepts a day abbreviation and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String getDay(String dayAbbreviation){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        switch on dayAbbreviation {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 'Sun' {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 'Mon' {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 'Tue' {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 'Wed' {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 'Thu' {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 'Fri' {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            when 'Sat' {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                dayString = 'Invalid abbreviation';</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\4.polymorphic-methods\dev-console.txt</t>
+  </si>
+  <si>
+    <t>// calling same method multiple times with different values</t>
+  </si>
+  <si>
+    <t>System.debug(firstClass.getDay('Sun'));</t>
+  </si>
+  <si>
+    <t>System.debug(firstClass.getDay('Tue'));</t>
+  </si>
+  <si>
+    <t>System.debug(firstClass.getDay('Thu'));</t>
+  </si>
+  <si>
+    <t>System.debug(firstClass.getDay('asdasda'));</t>
+  </si>
+  <si>
+    <t>Tham số được truyền vào là Integer</t>
+  </si>
+  <si>
+    <t>Cùng tên hàm nhưng tham số được truyền vào là String</t>
   </si>
 </sst>
 </file>
@@ -502,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -514,6 +578,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,25 +1404,78 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0477B311-AC7C-2409-3EDE-BF8CD2EB72FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="4572000"/>
+          <a:ext cx="600075" cy="23879175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>322226</xdr:colOff>
+      <xdr:colOff>331749</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>46900</xdr:rowOff>
+      <xdr:rowOff>123076</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD4CE3A4-E49B-FB50-8380-78776CDE5C1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C330CC2-DB75-3548-50CA-14FEE2CA49C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,8 +1491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5010150" y="26060400"/>
-          <a:ext cx="12990476" cy="5800000"/>
+          <a:off x="5000625" y="19278600"/>
+          <a:ext cx="13009524" cy="5990476"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,12 +1505,12 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>314325</xdr:colOff>
       <xdr:row>114</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1406,8 +1527,163 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3067050" y="27822525"/>
-          <a:ext cx="4524375" cy="647700"/>
+          <a:off x="3067050" y="21012150"/>
+          <a:ext cx="4562475" cy="790575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DC5D28-3D93-F829-E16C-5BCA515D25DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2790825" y="21783675"/>
+          <a:ext cx="4819650" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>312699</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>46907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFFF28C-7C80-6FEA-6E6A-26331105BE43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5591175" y="26879550"/>
+          <a:ext cx="13009524" cy="5742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59276064-5172-1C15-482A-FB4970F490EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2981325" y="30213300"/>
+          <a:ext cx="5219700" cy="1495425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1436,22 +1712,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0477B311-AC7C-2409-3EDE-BF8CD2EB72FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C29846E-C703-9738-680B-6C119BEBEAAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1459,8 +1735,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1590675" y="4572000"/>
-          <a:ext cx="600075" cy="23879175"/>
+          <a:off x="1647825" y="11963400"/>
+          <a:ext cx="0" cy="6943725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3733,8 +4009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE7571A-9643-4C80-837F-73CF6C038F60}">
   <dimension ref="A3:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="J138" sqref="J138"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4477,4 +4753,1729 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80D540-46F4-45B2-9F10-8936CFAD2C6C}">
+  <dimension ref="A4:J170"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="G174" sqref="G174"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="D18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="H18" s="6"/>
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="E20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="6"/>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="6"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="6"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="6"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="6"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="6"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="6"/>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="6"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="6"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" s="5"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="6"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" s="5"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="6"/>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="6"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="6"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="6"/>
+      <c r="I100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="13"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="6"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="6"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="6"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="6"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="6"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="6"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="6"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="6"/>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+      <c r="G115" s="12"/>
+      <c r="H115" s="6"/>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="6"/>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="6"/>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="6"/>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="6"/>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="6"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
+      <c r="H125" s="6"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+      <c r="G126" s="12"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="6"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
+      <c r="H128" s="6"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="13"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="6"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="6"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="6"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="5"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="6"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+      <c r="G134" s="12"/>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+      <c r="G135" s="12"/>
+      <c r="H135" s="6"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+      <c r="G136" s="12"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="5"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="6"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="9"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="4"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="6"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="5"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="6"/>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="6"/>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
+      <c r="G147" s="12"/>
+      <c r="H147" s="6"/>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
+      <c r="G148" s="12"/>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
+      <c r="G149" s="12"/>
+      <c r="H149" s="6"/>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
+      <c r="G150" s="12"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="6"/>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="5"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="6"/>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="6"/>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="5"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="5"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="6"/>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="12"/>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="12"/>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="6"/>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="5"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
+      <c r="F167" s="12"/>
+      <c r="G167" s="12"/>
+      <c r="H167" s="6"/>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="12"/>
+      <c r="F169" s="12"/>
+      <c r="G169" s="12"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8"/>
+      <c r="H170" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9BCD3-09A7-490B-AC6D-ADFCC8B781D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C6B33B-CBBE-42A7-AD1D-F5487A2209F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
     <sheet name="ApexMethodsAndAccessModifiers" sheetId="2" r:id="rId2"/>
     <sheet name="Parameterized Methods" sheetId="3" r:id="rId3"/>
     <sheet name="Polymorphic Methods" sheetId="4" r:id="rId4"/>
+    <sheet name="Static Keyword" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -438,6 +439,108 @@
   </si>
   <si>
     <t>Cùng tên hàm nhưng tham số được truyền vào là String</t>
+  </si>
+  <si>
+    <t>static dùng cho biến hoặc method trong class</t>
+  </si>
+  <si>
+    <t>5.static-keyword</t>
+  </si>
+  <si>
+    <t>Covid19.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\5.static-keyword\Covid19.apxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Covid19 Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Track covid19 recovery</t>
+  </si>
+  <si>
+    <t>public class Covid19 {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Integer recoveredInArea = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //static variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static Integer recoveredInCountry = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void treatPatient(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        recoveredInArea++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        recoveredInCountry++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // static method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public static void printTreated(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('Recovered in country : '+recoveredInCountry);</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\5.static-keyword\dev-console.txt</t>
+  </si>
+  <si>
+    <t>Covid19 jaipur = new Covid19();</t>
+  </si>
+  <si>
+    <t>System.debug('Recoverd in jaipur : '+jaipur.recoveredInArea);</t>
+  </si>
+  <si>
+    <t>Covid19.printTreated();</t>
+  </si>
+  <si>
+    <t>//System.debug('Recoverd in country : '+Covid19.recoveredInCountry);</t>
+  </si>
+  <si>
+    <t>jaipur.treatPatient();</t>
+  </si>
+  <si>
+    <t>Covid19 hyd = new Covid19();</t>
+  </si>
+  <si>
+    <t>hyd.treatPatient();</t>
+  </si>
+  <si>
+    <t>System.debug('Recoverd in hyd : '+hyd.recoveredInArea);</t>
+  </si>
+  <si>
+    <t>Áp dụng cho bài toán thông kê số người khỏi bệnh covid ở 1 quốc gia</t>
+  </si>
+  <si>
+    <t>Số người khỏi covid ở 1 vùng nào đó của quốc gia(mỗi 1 vùng sẽ là 1 instance của class Covid19)</t>
+  </si>
+  <si>
+    <t>Tổng số người khỏi covid ở 1 quốc gia = tổng của recoveredInArea, do đó recoveredInCountry phải là static và</t>
+  </si>
+  <si>
+    <t>vì recoveredInCountry là static nên nó ko thể access bằng instance như biến recoveredInArea mà phải access trực</t>
+  </si>
+  <si>
+    <t>tiếp bằng class Covid19</t>
+  </si>
+  <si>
+    <t>nó được share là biến sử dụng chung cho tất cả các Instance của class Covid19</t>
+  </si>
+  <si>
+    <t>Method printTreated được khai báo static có nghĩa là nó ko phải là method của instance mà nó là method của Class</t>
+  </si>
+  <si>
+    <t>Khi chưa tạo instance của class Covid19 thì recoveredInArea là null</t>
+  </si>
+  <si>
+    <t>Trong static method thì chỉ có thể dùng static variable chứ ko dc dùng normal variable hay non-static variable</t>
   </si>
 </sst>
 </file>
@@ -578,10 +681,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1765,6 +1868,479 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B8EA5D-7EA5-7162-7D31-A55937C8E686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2638425" y="6638925"/>
+          <a:ext cx="5724525" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F6AA76-3C1F-7B5C-84E9-AE09DF5F2006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="8715375"/>
+          <a:ext cx="4457700" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4674F601-FC46-4052-4F27-CF9535148285}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3476625" y="11010900"/>
+          <a:ext cx="2924175" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>255555</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>94555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DA19BD-70F2-DB72-FA85-B900EA5CEF6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5581650" y="11487150"/>
+          <a:ext cx="12961905" cy="5561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45FD406-5C5B-7F70-2D9C-5658173F2583}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="11401425"/>
+          <a:ext cx="7391400" cy="2419350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94876A77-D889-9E72-2F79-9C392247C33D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="12715875"/>
+          <a:ext cx="7467600" cy="1495425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F09ED9D-D7FC-7031-0A44-8B1DF4198E7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1162050" y="7581900"/>
+          <a:ext cx="333375" cy="3724275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE2226E5-D0A3-9314-BA25-F752D523A13E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1314450" y="7591425"/>
+          <a:ext cx="238125" cy="5029200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{870354AC-5359-E54F-23BD-22FBA76D3770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2009775" y="533400"/>
+          <a:ext cx="523875" cy="6391275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4759,8 +5335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC80D540-46F4-45B2-9F10-8936CFAD2C6C}">
   <dimension ref="A4:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,24 +5422,21 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="D15" s="11" t="s">
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="11"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="E16" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="H17" s="6"/>
@@ -4937,404 +5510,214 @@
       <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
       <c r="H63" s="6"/>
       <c r="I63" t="s">
         <v>5</v>
@@ -5347,401 +5730,216 @@
       <c r="B64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
       <c r="H100" s="6"/>
       <c r="I100" t="s">
         <v>5</v>
@@ -5751,402 +5949,217 @@
       </c>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B102" s="13"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
+      <c r="B102" s="11"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B109" s="13" t="s">
+      <c r="B109" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B112" s="13" t="s">
+      <c r="B112" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="13" t="s">
+      <c r="B113" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="13" t="s">
+      <c r="B115" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12"/>
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="13" t="s">
+      <c r="B116" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="13" t="s">
+      <c r="B119" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="13" t="s">
+      <c r="B121" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="13" t="s">
+      <c r="B123" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="13" t="s">
+      <c r="B125" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12"/>
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12"/>
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12"/>
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="13" t="s">
+      <c r="B128" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B129" s="13"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
+      <c r="B129" s="11"/>
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="5"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12"/>
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12"/>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B137" s="5"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -6180,291 +6193,156 @@
       <c r="B143" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B144" s="5"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="12"/>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="12"/>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="12"/>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12"/>
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="12"/>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12"/>
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="12"/>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12"/>
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="12"/>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12"/>
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" s="5"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="12"/>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" s="5"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-      <c r="E156" s="12"/>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-      <c r="E157" s="12"/>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
       <c r="H159" s="6"/>
     </row>
     <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" s="5"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
-      <c r="G163" s="12"/>
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="12"/>
-      <c r="G164" s="12"/>
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="12"/>
-      <c r="F165" s="12"/>
-      <c r="G165" s="12"/>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" s="5"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12"/>
-      <c r="F166" s="12"/>
-      <c r="G166" s="12"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B167" s="13" t="s">
+      <c r="B167" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
-      <c r="G167" s="12"/>
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-      <c r="E168" s="12"/>
-      <c r="F168" s="12"/>
-      <c r="G168" s="12"/>
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B169" s="13" t="s">
+      <c r="B169" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-      <c r="E169" s="12"/>
-      <c r="F169" s="12"/>
-      <c r="G169" s="12"/>
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="12" t="s">
         <v>120</v>
       </c>
       <c r="C170" s="8"/>
@@ -6478,4 +6356,667 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6514EB9D-2BF9-422B-B713-FFEC4F669626}">
+  <dimension ref="A2:J71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="D23" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="H23" s="6"/>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="E24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="6"/>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="6"/>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="6"/>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="6"/>
+      <c r="J38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="6"/>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="6"/>
+      <c r="J46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="6"/>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="6"/>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="6"/>
+      <c r="J59" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C6B33B-CBBE-42A7-AD1D-F5487A2209F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F3D048-8413-4883-8F82-84756302FABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Parameterized Methods" sheetId="3" r:id="rId3"/>
     <sheet name="Polymorphic Methods" sheetId="4" r:id="rId4"/>
     <sheet name="Static Keyword" sheetId="5" r:id="rId5"/>
+    <sheet name="Apex Naming Conventions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="187">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -541,6 +542,96 @@
   </si>
   <si>
     <t>Trong static method thì chỉ có thể dùng static variable chứ ko dc dùng normal variable hay non-static variable</t>
+  </si>
+  <si>
+    <t>Apex là ngôn ngữ case insensitive language</t>
+  </si>
+  <si>
+    <t>Class name: PascalCase</t>
+  </si>
+  <si>
+    <t>variable: camelCase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constant variable: </t>
+  </si>
+  <si>
+    <t>6.naming-conventions</t>
+  </si>
+  <si>
+    <t>NamingConventionsDemo.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\6.naming-conventions\NamingConventionsDemo.apxc</t>
+  </si>
+  <si>
+    <t> * Class name should be written in PascalCase</t>
+  </si>
+  <si>
+    <t> * Each word should be capitalized</t>
+  </si>
+  <si>
+    <t> * Note: Always give meaningful name to your class</t>
+  </si>
+  <si>
+    <t> * */</t>
+  </si>
+  <si>
+    <t>public class NamingConventionsDemo {</t>
+  </si>
+  <si>
+    <t>    // Variable name should be written in camelCase</t>
+  </si>
+  <si>
+    <t>    // First world should be all in small case, and each word after that should be capitalized</t>
+  </si>
+  <si>
+    <t>    // Note: Always give meaningful name to your variable</t>
+  </si>
+  <si>
+    <t>    String superSecretKey = 'Secret_Key';</t>
+  </si>
+  <si>
+    <t>    // Constant variables should be written in CAPITAL CASE</t>
+  </si>
+  <si>
+    <t>    final String MY_FINAL_VARIABLE = 'DUMMY';</t>
+  </si>
+  <si>
+    <t>    /**</t>
+  </si>
+  <si>
+    <t>     * Method name should be written in camelCase</t>
+  </si>
+  <si>
+    <t>     * First world should be all in small case, and each word after that should be capitalized</t>
+  </si>
+  <si>
+    <t>     * Note: Always give meaningful name to your method</t>
+  </si>
+  <si>
+    <t>     * */</t>
+  </si>
+  <si>
+    <t>    public void demoFunction(){</t>
+  </si>
+  <si>
+    <t>        String superSecretKey = 'Secret_Key';</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>camelCase</t>
+  </si>
+  <si>
+    <t>PascalCase</t>
+  </si>
+  <si>
+    <t>constant variable</t>
+  </si>
+  <si>
+    <t>method: camelCase</t>
   </si>
 </sst>
 </file>
@@ -6362,8 +6453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6514EB9D-2BF9-422B-B713-FFEC4F669626}">
   <dimension ref="A2:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6480,29 +6571,23 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="D20" s="13" t="s">
+      <c r="D20" t="s">
         <v>102</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13" t="s">
+      <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="13"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
+      <c r="E22" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="13"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -6574,55 +6659,30 @@
       <c r="B31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
       <c r="H35" s="6"/>
       <c r="I35" t="s">
         <v>5</v>
@@ -6635,22 +6695,12 @@
       <c r="B36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
       <c r="H37" s="6"/>
       <c r="I37" t="s">
         <v>5</v>
@@ -6661,11 +6711,6 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
       <c r="H38" s="6"/>
       <c r="J38" t="s">
         <v>153</v>
@@ -6673,33 +6718,18 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
       <c r="H41" s="6"/>
       <c r="I41" t="s">
         <v>5</v>
@@ -6712,53 +6742,28 @@
       <c r="B42" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
       <c r="H46" s="6"/>
       <c r="J46" t="s">
         <v>154</v>
@@ -6768,11 +6773,6 @@
       <c r="B47" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
       <c r="H47" s="6"/>
       <c r="I47" t="s">
         <v>5</v>
@@ -6785,20 +6785,10 @@
       <c r="B48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -6830,44 +6820,24 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
       <c r="H58" s="6"/>
       <c r="I58" t="s">
         <v>5</v>
@@ -6878,11 +6848,6 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
       <c r="H59" s="6"/>
       <c r="J59" t="s">
         <v>152</v>
@@ -6892,115 +6857,60 @@
       <c r="B60" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -7019,4 +6929,548 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1060C2-2C8A-4DB7-97EC-E57109886525}">
+  <dimension ref="A2:L58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I54" sqref="D54:I54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="D26" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="E30" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="6"/>
+      <c r="K40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="6"/>
+      <c r="K44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="6"/>
+      <c r="K47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="6"/>
+      <c r="K54" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F3D048-8413-4883-8F82-84756302FABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D727CF6A-A4BA-4DDE-87BE-03A6D2E147AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Polymorphic Methods" sheetId="4" r:id="rId4"/>
     <sheet name="Static Keyword" sheetId="5" r:id="rId5"/>
     <sheet name="Apex Naming Conventions" sheetId="6" r:id="rId6"/>
+    <sheet name="Improve Previous Code" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="221">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -632,6 +633,108 @@
   </si>
   <si>
     <t>method: camelCase</t>
+  </si>
+  <si>
+    <t>Improve Previous Code with Apex Methods</t>
+  </si>
+  <si>
+    <t>7.improve-previous-code-with-methods</t>
+  </si>
+  <si>
+    <t>Friends.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\7.improve-previous-code-with-methods\Friends.apxc</t>
+  </si>
+  <si>
+    <t>public class Friends {</t>
+  </si>
+  <si>
+    <t>/*Pizza Rates:</t>
+  </si>
+  <si>
+    <t>1 slice - $8/slice</t>
+  </si>
+  <si>
+    <t>2-3 slice - $7/slice</t>
+  </si>
+  <si>
+    <t>&gt;3 slice - $6/slice</t>
+  </si>
+  <si>
+    <t>Ross ordered - 3 slices</t>
+  </si>
+  <si>
+    <t>Chandler ordered - 1 slice</t>
+  </si>
+  <si>
+    <t>Joey ordered - 4 slices</t>
+  </si>
+  <si>
+    <t>    //Create rate card with constants</t>
+  </si>
+  <si>
+    <t>    final Integer ONLY_ONE_SLICE = 8;</t>
+  </si>
+  <si>
+    <t>    final Integer UPTO_THREE_SLICES = 7;</t>
+  </si>
+  <si>
+    <t>    final Integer MORE_THAN_THREE_SLICES = 6;</t>
+  </si>
+  <si>
+    <t>    // this method accepts number slices</t>
+  </si>
+  <si>
+    <t>    // and returns the amount</t>
+  </si>
+  <si>
+    <t>    public Integer getBill(Integer numberOfSlices){</t>
+  </si>
+  <si>
+    <t>        Integer billAmount = numberOfSlices == 1 ? ONLY_ONE_SLICE*numberOfSlices :</t>
+  </si>
+  <si>
+    <t>                            (numberOfSlices &lt;= 3 ? UPTO_THREE_SLICES*numberOfSlices :</t>
+  </si>
+  <si>
+    <t>                                MORE_THAN_THREE_SLICES*numberOfSlices);</t>
+  </si>
+  <si>
+    <t>        return billAmount;</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\7.improve-previous-code-with-methods\dev-console.txt</t>
+  </si>
+  <si>
+    <t>Friends pizzaNight = new Friends();</t>
+  </si>
+  <si>
+    <t>// Calculate Ross's amount</t>
+  </si>
+  <si>
+    <t>Integer rossHasToPay = pizzaNight.getBill(3);</t>
+  </si>
+  <si>
+    <t>System.debug('Ross has to pay - '+rossHasToPay);</t>
+  </si>
+  <si>
+    <t>// Calculate Chandler's amount</t>
+  </si>
+  <si>
+    <t>Integer chandlerHasToPay = pizzaNight.getBill(1);</t>
+  </si>
+  <si>
+    <t>System.debug('Chandler has to pay - '+chandlerHasToPay);</t>
+  </si>
+  <si>
+    <t>// Calculate Joey's amount</t>
+  </si>
+  <si>
+    <t>Integer joeyHasToPay = pizzaNight.getBill(4);</t>
+  </si>
+  <si>
+    <t>System.debug('Joey has to pay - '+joeyHasToPay);</t>
   </si>
 </sst>
 </file>
@@ -2432,6 +2535,320 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>322224</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>65911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D50CB7D0-38B7-5B08-EFD0-8A214DE05E2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="11858625"/>
+          <a:ext cx="13009524" cy="6114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE539E4B-969C-FB64-4937-D52C867E5C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="12687300"/>
+          <a:ext cx="4838700" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B2AF2DF-087F-DC7B-F2FA-68579AE60A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="13468350"/>
+          <a:ext cx="4314825" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF80877-E3BB-96E8-4D9B-D9913A0D8626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3648075" y="14030325"/>
+          <a:ext cx="4781550" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA5B893-1F51-96DE-EA92-14B01B6CAFF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2028825" y="8915400"/>
+          <a:ext cx="1085850" cy="3533775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C4FC9A-44E9-EEB0-7FC2-13492A682753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="9144000"/>
+          <a:ext cx="1543050" cy="4810125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6935,8 +7352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1060C2-2C8A-4DB7-97EC-E57109886525}">
   <dimension ref="A2:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I54" sqref="D54:I54"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7089,24 +7506,21 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="D26" s="13" t="s">
+      <c r="D26" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="13"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="E27" t="s">
         <v>125</v>
       </c>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13" t="s">
+      <c r="E28" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="6"/>
@@ -7157,6 +7571,426 @@
       <c r="B36" s="5" t="s">
         <v>164</v>
       </c>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" t="s">
+        <v>5</v>
+      </c>
+      <c r="L40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="K44" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="6"/>
+      <c r="K54" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB430E6B-A3DF-407F-B5F0-ECCC7C0E1F4B}">
+  <dimension ref="A2:J75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="D19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="E23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="D25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="E26" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="D27" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="H27" s="6"/>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="E28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="E29" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -7166,9 +8000,9 @@
       <c r="I36" s="14"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -7179,9 +8013,9 @@
       <c r="I37" s="14"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -7192,10 +8026,8 @@
       <c r="I38" s="14"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>167</v>
-      </c>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -7205,9 +8037,9 @@
       <c r="I39" s="14"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
@@ -7217,16 +8049,10 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="6"/>
-      <c r="K40" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
@@ -7237,9 +8063,9 @@
       <c r="I41" s="14"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
@@ -7250,9 +8076,9 @@
       <c r="I42" s="14"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -7263,10 +8089,8 @@
       <c r="I43" s="14"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>172</v>
-      </c>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
@@ -7275,15 +8099,11 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="6"/>
-      <c r="K44" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="5"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>199</v>
+      </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
@@ -7293,9 +8113,9 @@
       <c r="I45" s="14"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -7306,9 +8126,9 @@
       <c r="I46" s="14"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -7318,15 +8138,11 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="6"/>
-      <c r="K47" t="s">
-        <v>5</v>
-      </c>
-      <c r="L47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="5"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
@@ -7336,10 +8152,8 @@
       <c r="I48" s="14"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>175</v>
-      </c>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
@@ -7349,9 +8163,9 @@
       <c r="I49" s="14"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -7362,9 +8176,9 @@
       <c r="I50" s="14"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -7375,9 +8189,9 @@
       <c r="I51" s="14"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -7388,9 +8202,9 @@
       <c r="I52" s="14"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -7401,9 +8215,9 @@
       <c r="I53" s="14"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -7413,16 +8227,10 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="6"/>
-      <c r="K54" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -7433,9 +8241,9 @@
       <c r="I55" s="14"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -7446,8 +8254,10 @@
       <c r="I56" s="14"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
@@ -7457,20 +8267,162 @@
       <c r="I57" s="14"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="9"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D727CF6A-A4BA-4DDE-87BE-03A6D2E147AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B47AF1-C144-48A4-AE20-4626AB238C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Static Keyword" sheetId="5" r:id="rId5"/>
     <sheet name="Apex Naming Conventions" sheetId="6" r:id="rId6"/>
     <sheet name="Improve Previous Code" sheetId="7" r:id="rId7"/>
+    <sheet name="Challenge - Apex Methods" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="251">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -735,6 +736,96 @@
   </si>
   <si>
     <t>System.debug('Joey has to pay - '+joeyHasToPay);</t>
+  </si>
+  <si>
+    <t>8.apex-method-challenge-solution</t>
+  </si>
+  <si>
+    <t>Fitness.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\8.apex-method-challenge-solution\Fitness.apxc</t>
+  </si>
+  <si>
+    <t> * Fitness class with helpful methods</t>
+  </si>
+  <si>
+    <t> * to calculate human fitness</t>
+  </si>
+  <si>
+    <t>public class Fitness {</t>
+  </si>
+  <si>
+    <t>     * calculateBMI method</t>
+  </si>
+  <si>
+    <t>     * accepts body weight (should be in kg)</t>
+  </si>
+  <si>
+    <t>     * and body height (should be in meter)</t>
+  </si>
+  <si>
+    <t>     * returns BMI value</t>
+  </si>
+  <si>
+    <t>    public static Decimal calculateBMI(Decimal weight, Decimal height) {</t>
+  </si>
+  <si>
+    <t>        Decimal result  = weight / (height*height);</t>
+  </si>
+  <si>
+    <t>        return result;</t>
+  </si>
+  <si>
+    <t>     * calculatePace method</t>
+  </si>
+  <si>
+    <t>     * accepts distance (in km)</t>
+  </si>
+  <si>
+    <t>     * and minutes</t>
+  </si>
+  <si>
+    <t>     * returns pace in km/hr</t>
+  </si>
+  <si>
+    <t>    public static Decimal calculatePace(Decimal distance, Decimal minutes) {</t>
+  </si>
+  <si>
+    <t>        Decimal hr = minutes/60;</t>
+  </si>
+  <si>
+    <t>        Decimal pace = distance / hr;</t>
+  </si>
+  <si>
+    <t>        return pace;</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\8.apex-method-challenge-solution\dev-console.txt</t>
+  </si>
+  <si>
+    <t>System.debug('BMI for height '+1.2+' meter and weight '+65+'kg is : '+Fitness.calculateBMI(65, 1.2));</t>
+  </si>
+  <si>
+    <t>System.debug('BMI for height '+1.3+' meter and weight '+75+'kg is : '+Fitness.calculateBMI(75, 1.3));</t>
+  </si>
+  <si>
+    <t>System.debug('BMI for height '+1.4+' meter and weight '+87+'kg is : '+Fitness.calculateBMI(87, 1.4));</t>
+  </si>
+  <si>
+    <t>System.debug('BMI for height '+1.5+' meter and weight '+92+'kg is : '+Fitness.calculateBMI(92, 1.5));</t>
+  </si>
+  <si>
+    <t>System.debug('Pace (km/hr) for '+12.5+' km in '+80+' minutes is '+Fitness.calculatePace(12.5, 80));</t>
+  </si>
+  <si>
+    <t>System.debug('Pace (km/hr) for '+14.2+' km in '+72.3+' minutes is '+Fitness.calculatePace(14.2, 72.3));</t>
+  </si>
+  <si>
+    <t>System.debug('Pace (km/hr) for '+12.9+' km in '+60.5+' minutes is '+Fitness.calculatePace(12.9, 60.5));</t>
+  </si>
+  <si>
+    <t>System.debug('Pace (km/hr) for '+10.1+' km in '+70.1+' minutes is '+Fitness.calculatePace(10.1, 70.1));</t>
   </si>
 </sst>
 </file>
@@ -2849,6 +2940,161 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A521CC4E-34B1-973C-0732-84D092F796FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="8896350"/>
+          <a:ext cx="3143250" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4BAEB41-C214-DF89-9738-D1887D5204B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="11001375"/>
+          <a:ext cx="2914650" cy="2800350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>23505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6E425B-E903-68B9-FACA-5B9DAA3B7810}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="14744700"/>
+          <a:ext cx="11344275" cy="5090805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7739,8 +7985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB430E6B-A3DF-407F-B5F0-ECCC7C0E1F4B}">
   <dimension ref="A2:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7902,7 +8148,7 @@
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="E26" s="13" t="s">
+      <c r="E26" t="s">
         <v>162</v>
       </c>
       <c r="H26" s="6"/>
@@ -7978,304 +8224,136 @@
       <c r="B35" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
       <c r="J48" s="6"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
       <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
       <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
       <c r="J53" s="6"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
       <c r="J54" s="6"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
       <c r="J55" s="6"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -8308,117 +8386,792 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
       <c r="G65" s="6"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
       <c r="G67" s="6"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="5"/>
+      <c r="G72" s="6"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G74" s="6"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0489476-EE10-4190-AA21-607962102C97}">
+  <dimension ref="A3:K76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="M75" sqref="M75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="E21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="D25" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="D28" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="E29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="E30" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="4"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>244</v>
+      </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14"/>
-      <c r="G68" s="6"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="6"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="6"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14"/>
-      <c r="G70" s="6"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="6"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" s="5"/>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="6"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="6"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="6"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14"/>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="9"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="6"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="6"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B47AF1-C144-48A4-AE20-4626AB238C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91037474-89AC-4ACC-BA64-1EB8B0F0715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Apex Naming Conventions" sheetId="6" r:id="rId6"/>
     <sheet name="Improve Previous Code" sheetId="7" r:id="rId7"/>
     <sheet name="Challenge - Apex Methods" sheetId="8" r:id="rId8"/>
+    <sheet name="Class Constructor" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="272">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -826,6 +827,69 @@
   </si>
   <si>
     <t>System.debug('Pace (km/hr) for '+10.1+' km in '+70.1+' minutes is '+Fitness.calculatePace(10.1, 70.1));</t>
+  </si>
+  <si>
+    <t>9.constructor</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\9.constructor\Covid19.apxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // blank constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Covid19(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('Constructor Called');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // parameterized constructor to set class variables value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Covid19(Integer recoveredInArea){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // calling blank constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        // use this keyword to refer to global variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.recoveredInArea = recoveredInArea;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        recoveredInCountry = recoveredInArea;</t>
+  </si>
+  <si>
+    <t>blank constructor vì nó ko có parameter nào. Nó sẽ overwrite lên default blank constructor ngầm của Apex</t>
+  </si>
+  <si>
+    <t>global recoveredInArea</t>
+  </si>
+  <si>
+    <t>parameter recoveredInArea đóng vai trò là local parameter. Local recoveredInArea của global recoveredInArea</t>
+  </si>
+  <si>
+    <t>this để refer đến global recoveredInArea</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\9.constructor\dev-console.txt</t>
+  </si>
+  <si>
+    <t>// creating instance with parameterized connstructor</t>
+  </si>
+  <si>
+    <t>Covid19 jaipur = new Covid19(5);</t>
+  </si>
+  <si>
+    <t>Khởi tạo instance bằng contructor có tham số. Lúc này sẽ ko gọi blank constructor mà contructor có tham số sẽ được gọi</t>
+  </si>
+  <si>
+    <t>call blank constructor</t>
   </si>
 </sst>
 </file>
@@ -3095,6 +3159,373 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E366BF8-51EA-584C-08D1-2429B8AF87C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2609850" y="8353425"/>
+          <a:ext cx="8020050" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0820AA1-F0B4-0656-39A5-60E2F5E5CAFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7896225" y="10086975"/>
+          <a:ext cx="2733675" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DCCBEF-FD62-3697-18E5-0C022E423FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3095625" y="10086975"/>
+          <a:ext cx="4448175" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E8F3EDC-4776-0D9C-B10D-3F6305FB7DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1743075" y="9058275"/>
+          <a:ext cx="7496175" cy="4905375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334E980F-A0D7-937B-F84A-F5E9B8E54855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1866900" y="9096375"/>
+          <a:ext cx="3609975" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>64450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA951E49-3A35-AEB6-3294-6ACF6A023907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="14925675"/>
+          <a:ext cx="11077575" cy="4760275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B03A1A89-9A60-B86F-7FAA-35607CFD03CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3619500" y="10467975"/>
+          <a:ext cx="1905000" cy="5886450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8465,8 +8896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0489476-EE10-4190-AA21-607962102C97}">
   <dimension ref="A3:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8571,49 +9002,49 @@
       </c>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="D17" t="s">
         <v>102</v>
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="D20" t="s">
         <v>124</v>
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="E21" t="s">
         <v>125</v>
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="E22" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="D23" t="s">
         <v>161</v>
@@ -8621,60 +9052,75 @@
       <c r="E23" s="10"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="E24" t="s">
         <v>162</v>
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="D25" s="13" t="s">
+      <c r="D25" t="s">
         <v>188</v>
       </c>
-      <c r="E25" s="13"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13" t="s">
+      <c r="E26" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13" t="s">
+      <c r="E27" t="s">
         <v>189</v>
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="D28" s="10" t="s">
         <v>221</v>
       </c>
       <c r="E28" s="10"/>
       <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="E30" s="10" t="s">
         <v>222</v>
       </c>
       <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -8704,320 +9150,158 @@
       <c r="B36" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -9055,108 +9339,44 @@
       <c r="B68" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
       <c r="K69" s="6"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
       <c r="K70" s="6"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
       <c r="K73" s="6"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
       <c r="K74" s="6"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -9178,4 +9398,703 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3348506-21D1-44DB-84B2-C275019F7C57}">
+  <dimension ref="A4:J77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="D24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="D26" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="E28" t="s">
+        <v>189</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="D29" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="D32" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="H32" s="6"/>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="E33" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="E34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="6"/>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="6"/>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="6"/>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="6"/>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="6"/>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="9"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="6"/>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91037474-89AC-4ACC-BA64-1EB8B0F0715C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D374351D-D025-4430-9150-FA03AF11C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Improve Previous Code" sheetId="7" r:id="rId7"/>
     <sheet name="Challenge - Apex Methods" sheetId="8" r:id="rId8"/>
     <sheet name="Class Constructor" sheetId="9" r:id="rId9"/>
+    <sheet name="Initialization Blocks" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="288">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -890,6 +891,54 @@
   </si>
   <si>
     <t>call blank constructor</t>
+  </si>
+  <si>
+    <t>10.initialization-block</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\10.initialization-block\Covid19.apxc</t>
+  </si>
+  <si>
+    <t>// initialization block 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        recoveredInArea = 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // initialization block 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        recoveredInCountry = 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // static initialization block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    static {</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\10.initialization-block\dev-console.txt</t>
+  </si>
+  <si>
+    <t>Cũng giống như constructor thì Initialization Blocks cũng được execute khi instance class được tạo</t>
+  </si>
+  <si>
+    <t>Thường thì Initialization Blocks được dùng để khởi tạo giá trị cho các variable của class khi class instance được tạo</t>
+  </si>
+  <si>
+    <t>constructor thì nhận giá trị parameter được truyền khi khởi tạo class instance để set giá trị cho variable class. Initialzation block thì ko nhận được parameter được truyền mà sẽ hard code value để</t>
+  </si>
+  <si>
+    <t>set giá trị cho class variable</t>
+  </si>
+  <si>
+    <t>Các giá trị class variable trong initialization block ko được share giữa các class instance với nhau</t>
+  </si>
+  <si>
+    <t>static initialization block thì có thể share variable giữa các class instance</t>
   </si>
 </sst>
 </file>
@@ -3526,6 +3575,214 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>64834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE89455B-CED6-5E52-B437-B3B42D9F0ECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657225" y="15735300"/>
+          <a:ext cx="11410950" cy="4903534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B699969B-BCD0-927E-4576-614BA3E687F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057400" y="10096500"/>
+          <a:ext cx="1581150" cy="5010150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76831897-D2B9-8ACC-E928-67DB2AEA0B7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3638550" y="15220950"/>
+          <a:ext cx="114300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AFE9B2-7F39-1953-09CA-6C9487091735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="752475" y="1314450"/>
+          <a:ext cx="28575" cy="11315700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5472,6 +5729,711 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2B87B0-39B8-4FF6-86CC-824BF7144084}">
+  <dimension ref="A2:J86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="D27" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="E28" t="s">
+        <v>125</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="D30" t="s">
+        <v>161</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="E31" t="s">
+        <v>162</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="D32" t="s">
+        <v>188</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="E34" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="D35" t="s">
+        <v>221</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="E37" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="D38" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="D41" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="H41" s="6"/>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="E42" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="E43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="6"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="6"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="6"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="6"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="6"/>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="11"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="6"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="5"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="6"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="6"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="6"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5087B5DE-033F-474B-BAA5-47FF7537DE74}">
   <dimension ref="A3:J47"/>
@@ -9404,8 +10366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3348506-21D1-44DB-84B2-C275019F7C57}">
   <dimension ref="A4:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9590,24 +10552,21 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="D29" s="13" t="s">
+      <c r="D29" t="s">
         <v>221</v>
       </c>
-      <c r="E29" s="13"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13" t="s">
+      <c r="E30" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
+      <c r="E31" t="s">
         <v>222</v>
       </c>
       <c r="H31" s="6"/>
@@ -9681,55 +10640,30 @@
       <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
       <c r="H44" s="6"/>
       <c r="I44" t="s">
         <v>5</v>
@@ -9742,42 +10676,22 @@
       <c r="B45" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
       <c r="H48" s="6"/>
       <c r="I48" t="s">
         <v>5</v>
@@ -9790,53 +10704,28 @@
       <c r="B49" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
       <c r="H53" s="6"/>
       <c r="I53" t="s">
         <v>5</v>
@@ -9849,22 +10738,12 @@
       <c r="B54" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
       <c r="H55" s="6"/>
       <c r="I55" t="s">
         <v>5</v>
@@ -9877,22 +10756,12 @@
       <c r="B56" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
       <c r="H57" s="6"/>
       <c r="I57" t="s">
         <v>5</v>
@@ -9905,117 +10774,62 @@
       <c r="B58" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -10049,11 +10863,6 @@
       <c r="B74" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
       <c r="H74" s="6"/>
       <c r="I74" t="s">
         <v>5</v>
@@ -10064,22 +10873,12 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">

--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D374351D-D025-4430-9150-FA03AF11C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B549528F-53BC-49C0-8E70-003CA62C58F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Challenge - Apex Methods" sheetId="8" r:id="rId8"/>
     <sheet name="Class Constructor" sheetId="9" r:id="rId9"/>
     <sheet name="Initialization Blocks" sheetId="10" r:id="rId10"/>
+    <sheet name="Apex Class Lifecycle" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="301">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -939,6 +940,45 @@
   </si>
   <si>
     <t>static initialization block thì có thể share variable giữa các class instance</t>
+  </si>
+  <si>
+    <t>Như mình đã biết có 3 cách khởi tạo khi class instance được tạo đó là: constructor, initialization block và static initialization</t>
+  </si>
+  <si>
+    <t>Thứ tự lần lượt là: static initialization -&gt; initialization block -&gt; constructor</t>
+  </si>
+  <si>
+    <t>11.apex-class-order-of-execution</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\11.apex-class-order-of-execution\Covid19.apxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('Initilization Block 1 is Called');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('Initilization Block 2 is Called');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // static initialization block 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('Static Initilization Block 1 is Called');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // static initialization block 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('Static Initilization Block 2 is Called');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('Blank Constructor is called');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        System.debug('Parameterized Constructor is called');</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\11.apex-class-order-of-execution\dev-console.txt</t>
   </si>
 </sst>
 </file>
@@ -1773,6 +1813,214 @@
         <a:xfrm flipH="1">
           <a:off x="4962525" y="22059900"/>
           <a:ext cx="3829050" cy="38452425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>115660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC0B0EC-4E01-F94B-0EEA-D3383BDBE3AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="20107275"/>
+          <a:ext cx="11144250" cy="4392385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F9A8D2-2B81-1DBD-6237-B7E18FB83840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1190625" y="19954875"/>
+          <a:ext cx="1781175" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E04BD2D-6AFC-78BC-1510-50116D77CAF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="19935825"/>
+          <a:ext cx="752475" cy="1962150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16EEBA3-2790-50EB-E557-A23101A3E208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3295650" y="19935825"/>
+          <a:ext cx="361950" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5733,8 +5981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2B87B0-39B8-4FF6-86CC-824BF7144084}">
   <dimension ref="A2:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5970,29 +6218,23 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="D38" s="13" t="s">
+      <c r="D38" t="s">
         <v>251</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
+      <c r="E39" t="s">
         <v>125</v>
       </c>
-      <c r="F39" s="13"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
+      <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="13"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -6055,318 +6297,169 @@
       <c r="B49" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="11"/>
-      <c r="C56" s="14" t="s">
+      <c r="C56" t="s">
         <v>274</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="11"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -6398,22 +6491,12 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -6426,6 +6509,940 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE73B4-8E11-454B-9C53-B6BF2F3BB1B6}">
+  <dimension ref="A2:I105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="5"/>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="5"/>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="D20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="5"/>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="5"/>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="5"/>
+      <c r="D26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="5"/>
+      <c r="E27" t="s">
+        <v>162</v>
+      </c>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="D28" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="E30" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="D31" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="E33" t="s">
+        <v>222</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="E35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="D37" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" s="13"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="D40" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="E41" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="4"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="6"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="C55" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="6"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="6"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="6"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="6"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="6"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="5"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="6"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="6"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="6"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="6"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="6"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="6"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="6"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="6"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="6"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="6"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="5"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="6"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="6"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="6"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="6"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="5"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="6"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="6"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="6"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="6"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B100" s="5"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="6"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="6"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="9"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/me/4.Apex-Classes-and-Methods.xlsx
+++ b/me/4.Apex-Classes-and-Methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\salesforce\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B549528F-53BC-49C0-8E70-003CA62C58F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4171619E-BBD3-4198-97C9-E9771B8DA0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Apex Class" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Class Constructor" sheetId="9" r:id="rId9"/>
     <sheet name="Initialization Blocks" sheetId="10" r:id="rId10"/>
     <sheet name="Apex Class Lifecycle" sheetId="11" r:id="rId11"/>
+    <sheet name="InnerApexClassOrWrapperClass" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="344">
   <si>
     <t>Để có overview về các tool khác nhau có thể dùng để viết code Apex trong Salesforce thì thay cho dùng developer console mình sẽ dùng Salesforce set up để tạo class</t>
   </si>
@@ -979,6 +980,157 @@
   </si>
   <si>
     <t>salesforce\4.Apex-Classes-and-Methods\11.apex-class-order-of-execution\dev-console.txt</t>
+  </si>
+  <si>
+    <t>12.inner-class</t>
+  </si>
+  <si>
+    <t>Company.apxc</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\12.inner-class\Company.apxc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Company Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Stores information about the company</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * and its customers</t>
+  </si>
+  <si>
+    <t>public class Company {</t>
+  </si>
+  <si>
+    <t>public String companyName;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public String ceo;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Integer employeeCount;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public Long revenue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // List of all customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private List&lt;Client&gt; customers = new List&lt;Client&gt;();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // add new customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void addNewCustomer(String name, String website, String email, Long phone) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Client customer = new Client(name, website, email, phone);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        customers.add(customer);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // print the list of all customers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    public void getAllCustomers(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        for(Client customer : customers){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            System.debug('Customer Name: '+customer.clientName+', Website: '+customer.website+', Phone: '+customer.phone+', Email: '+customer.email);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    // private inner class to store customer information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private class Client {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public String clientName;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public String website;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public String email;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public Long phone;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Client (String clientName, String website, String email, Long phone){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.clientName = clientName;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.website = website;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.email = email;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            this.phone = phone;</t>
+  </si>
+  <si>
+    <t>salesforce\4.Apex-Classes-and-Methods\12.inner-class\dev-console.txt</t>
+  </si>
+  <si>
+    <t>Company sfdcfacts = new Company();</t>
+  </si>
+  <si>
+    <t>sfdcfacts.companyName = 'SFDCFacts Academy';</t>
+  </si>
+  <si>
+    <t>sfdcfacts.ceo = 'Manish Choudhari';</t>
+  </si>
+  <si>
+    <t>sfdcfacts.employeeCount = 6;</t>
+  </si>
+  <si>
+    <t>sfdcfacts.revenue = 1000000;</t>
+  </si>
+  <si>
+    <t>sfdcfacts.addNewCustomer('Forcepanda', 'forcepanda.com', 'forcepanda@gmail.com', 7778889990L);</t>
+  </si>
+  <si>
+    <t>sfdcfacts.addNewCustomer('Udemy', 'udemy.com', 'udemy@gmail.com', 6668889990L);</t>
+  </si>
+  <si>
+    <t>sfdcfacts.getAllCustomers();</t>
+  </si>
+  <si>
+    <r>
+      <t>sfdcfacts.addNewCustomer('CLR Infotech', 'clrinfotech.com', 'clrinfotech@gmail.com', 7778889990</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>inner class Client chỉ được dùng trong class Company</t>
   </si>
 </sst>
 </file>
@@ -2021,6 +2173,417 @@
         <a:xfrm flipH="1">
           <a:off x="3295650" y="19935825"/>
           <a:ext cx="361950" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>56549</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A6C5BF0-34BA-E788-63A4-10334793CC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="533400"/>
+          <a:ext cx="4809524" cy="3857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>30674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB2EA81-414E-5AF1-39D6-40390F77DBAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="24707850"/>
+          <a:ext cx="11287125" cy="4850324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED93F2AB-95E5-D238-8F31-0FD149BB136D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1724025" y="16335375"/>
+          <a:ext cx="685800" cy="2238375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C54F8CB-E8D2-01B3-E9C6-A75512F8C25B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1133475" y="18649950"/>
+          <a:ext cx="571500" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84280521-F761-746C-8298-4494C6E6806B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2152650" y="17687925"/>
+          <a:ext cx="1504950" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A96906E-2D1B-4480-664B-864A0A753322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2162175" y="17687925"/>
+          <a:ext cx="3581400" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE12F2C-24C2-323E-76A2-C2C57A5BA37B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1990725" y="17706975"/>
+          <a:ext cx="5505450" cy="1647825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{776635C9-FFC2-90D7-96C3-D149DFCB6A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="19802475"/>
+          <a:ext cx="2028825" cy="3286125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5982,7 +6545,7 @@
   <dimension ref="A2:J86"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:H44"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6244,6 +6807,9 @@
       </c>
       <c r="E41" s="10"/>
       <c r="H41" s="6"/>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
       <c r="J41" t="s">
         <v>6</v>
       </c>
@@ -6254,6 +6820,9 @@
         <v>125</v>
       </c>
       <c r="H42" s="6"/>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
       <c r="J42" t="s">
         <v>6</v>
       </c>
@@ -6264,6 +6833,9 @@
         <v>9</v>
       </c>
       <c r="H43" s="6"/>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
       <c r="J43" t="s">
         <v>6</v>
       </c>
@@ -6519,10 +7091,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDE73B4-8E11-454B-9C53-B6BF2F3BB1B6}">
-  <dimension ref="A2:I105"/>
+  <dimension ref="A2:J105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J100" sqref="J100"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6729,84 +7301,96 @@
       </c>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="E33" t="s">
         <v>222</v>
       </c>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="D34" t="s">
         <v>251</v>
       </c>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="E35" t="s">
         <v>125</v>
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" t="s">
         <v>272</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
+      <c r="E38" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="13"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
+      <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="13"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="D40" s="10" t="s">
         <v>290</v>
       </c>
       <c r="E40" s="10"/>
       <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="E41" s="10" t="s">
         <v>125</v>
       </c>
       <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="E42" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -6815,12 +7399,12 @@
       <c r="G43" s="8"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>12</v>
       </c>
@@ -6832,552 +7416,271 @@
       <c r="H47" s="3"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
       <c r="I50" s="6"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
       <c r="I54" s="6"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
-      <c r="C55" s="14" t="s">
+      <c r="C55" t="s">
         <v>274</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
       <c r="I55" s="6"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
       <c r="I57" s="6"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
       <c r="I58" s="6"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
       <c r="I59" s="6"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
       <c r="I60" s="6"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
       <c r="I61" s="6"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
       <c r="I62" s="6"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
       <c r="I63" s="6"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
       <c r="I64" s="6"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
       <c r="I66" s="6"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
       <c r="I67" s="6"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
       <c r="I68" s="6"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
       <c r="I69" s="6"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
       <c r="I71" s="6"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
       <c r="I72" s="6"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
       <c r="I73" s="6"/>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
       <c r="I74" s="6"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
       <c r="I76" s="6"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
       <c r="I77" s="6"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
       <c r="I78" s="6"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
       <c r="I79" s="6"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
       <c r="I80" s="6"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
       <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
       <c r="I82" s="6"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
       <c r="I85" s="6"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
       <c r="I87" s="6"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
       <c r="I89" s="6"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
       <c r="I91" s="6"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
       <c r="I92" s="6"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
       <c r="I93" s="6"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
       <c r="I94" s="6"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -7410,22 +7713,12 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -7443,6 +7736,1318 @@
       <c r="A105" t="s">
         <v>289</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F69946-6259-4589-B47D-1310392367DF}">
+  <dimension ref="A26:R127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D91" workbookViewId="0">
+      <selection activeCell="R105" sqref="R105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="5"/>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="5"/>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="5"/>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="5"/>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="5"/>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="5"/>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5"/>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="5"/>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="5"/>
+      <c r="D40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="D43" t="s">
+        <v>124</v>
+      </c>
+      <c r="H43" s="6"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="E44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="D46" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="D48" t="s">
+        <v>188</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" s="5"/>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5"/>
+      <c r="E50" t="s">
+        <v>189</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="5"/>
+      <c r="D51" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="5"/>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="5"/>
+      <c r="E53" t="s">
+        <v>222</v>
+      </c>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="5"/>
+      <c r="D54" t="s">
+        <v>251</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="5"/>
+      <c r="E55" t="s">
+        <v>125</v>
+      </c>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="5"/>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="D57" t="s">
+        <v>272</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="E58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5"/>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" s="5"/>
+      <c r="D60" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="H60" s="6"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="13"/>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="D63" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="H63" s="6"/>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" s="5"/>
+      <c r="E64" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="5"/>
+      <c r="E65" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="6"/>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="9"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="P71" s="6"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="6"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="6"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="6"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="5"/>
+      <c r="C76" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="6"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="6"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="6"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B80" s="5"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="6"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="6"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="6"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="6"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="6"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="6"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="6"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="6"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="14"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="14"/>
+      <c r="N88" s="14"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="6"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="5"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="6"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="6"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="6"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="6"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="14"/>
+      <c r="N93" s="14"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="6"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="6"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="6"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="5"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="6"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="6"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="6"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="6"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B100" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="6"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="14"/>
+      <c r="K101" s="14"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="14"/>
+      <c r="N101" s="14"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="6"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="6"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B103" s="5"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="6"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B104" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" t="s">
+        <v>5</v>
+      </c>
+      <c r="R104" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B105" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="6"/>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B106" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="6"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B107" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="6"/>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B108" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="6"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="6"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="9"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="4"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B116" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B118" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B119" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B120" s="5"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B121" s="5"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B125" s="5"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B126" s="5"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B127" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
